--- a/p_values_multi-qa-mpnet-base-dot-v1_vs_all-MiniLM-L6-v2.xlsx
+++ b/p_values_multi-qa-mpnet-base-dot-v1_vs_all-MiniLM-L6-v2.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="accuracy" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sensitivity" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="specificity" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="time" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,9 +449,7 @@
           <t>No Finding</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>3.085943078747645e-10</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -456,9 +457,7 @@
           <t>Enlarged Cardiom.</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.0002195967099843062</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -466,9 +465,7 @@
           <t>Cardiomegaly</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>4.635210281521651e-07</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -476,9 +473,7 @@
           <t>Lung Lesion</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.4796931953670418</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -486,9 +481,7 @@
           <t>Lung Opacity</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.01713405056770211</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -496,9 +489,7 @@
           <t>Edema</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.0003872602434936727</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -506,9 +497,7 @@
           <t>Consolidation</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0.003416470311985089</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -516,9 +505,7 @@
           <t>Pneumonia</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0.02551923476440135</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -526,9 +513,7 @@
           <t>Atelectasis</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>5.464019240910333e-05</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -536,9 +521,7 @@
           <t>Pneumothorax</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>1.63884004870481e-06</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -546,9 +529,7 @@
           <t>Pleural Effusion</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>1.19479071398182e-06</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -556,9 +537,7 @@
           <t>Pleural Other</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>0.0003992720817943396</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -566,9 +545,7 @@
           <t>Fracture</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>0.07373816631865111</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -576,8 +553,448 @@
           <t>Support Devices</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>p_value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>No Finding</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Enlarged Cardiom.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Cardiomegaly</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Lung Lesion</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Lung Opacity</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Edema</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Consolidation</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Pneumonia</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Atelectasis</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Pneumothorax</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Pleural Effusion</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Pleural Other</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Fracture</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Support Devices</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>p_value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>No Finding</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Enlarged Cardiom.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Cardiomegaly</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Lung Lesion</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Lung Opacity</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Edema</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Consolidation</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Pneumonia</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Atelectasis</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Pneumothorax</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Pleural Effusion</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Pleural Other</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Fracture</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Support Devices</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>p_value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>No Finding</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.058198959964459e-37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Enlarged Cardiom.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2.058198959964459e-37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Cardiomegaly</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2.058198959964459e-37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Lung Lesion</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2.058198959964459e-37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Lung Opacity</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2.058198959964459e-37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Edema</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.058198959964459e-37</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Consolidation</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.058198959964459e-37</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Pneumonia</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.058198959964459e-37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Atelectasis</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.058198959964459e-37</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Pneumothorax</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.058198959964459e-37</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Pleural Effusion</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.058198959964459e-37</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Pleural Other</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2.058198959964459e-37</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Fracture</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2.058198959964459e-37</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Support Devices</t>
+        </is>
+      </c>
       <c r="B15" t="n">
-        <v>1.038630540152228e-07</v>
+        <v>2.058198959964459e-37</v>
       </c>
     </row>
   </sheetData>

--- a/p_values_multi-qa-mpnet-base-dot-v1_vs_all-MiniLM-L6-v2.xlsx
+++ b/p_values_multi-qa-mpnet-base-dot-v1_vs_all-MiniLM-L6-v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="accuracy" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sensitivity" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="specificity" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="time" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="accuracy" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sensitivity" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="specificity" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="time" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -449,7 +449,9 @@
           <t>No Finding</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>1.189224106458005e-08</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -457,7 +459,9 @@
           <t>Enlarged Cardiom.</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>0.743532461668439</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -465,7 +469,9 @@
           <t>Cardiomegaly</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>0.2853081108123064</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -473,7 +479,9 @@
           <t>Lung Lesion</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>0.3835110692831069</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -481,7 +489,9 @@
           <t>Lung Opacity</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>0.4423783534346787</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -489,7 +499,9 @@
           <t>Edema</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>0.01176300432789639</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -497,7 +509,9 @@
           <t>Consolidation</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>0.1183057268373853</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -505,7 +519,9 @@
           <t>Pneumonia</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>0.5770324017264793</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -513,7 +529,9 @@
           <t>Atelectasis</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>2.143314765724455e-05</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -521,7 +539,9 @@
           <t>Pneumothorax</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>3.863341453943772e-05</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -529,7 +549,9 @@
           <t>Pleural Effusion</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>3.44810298557851e-05</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -537,7 +559,9 @@
           <t>Pleural Other</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>0.02182190128758563</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -545,7 +569,9 @@
           <t>Fracture</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>0.001254375329880237</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -553,7 +579,9 @@
           <t>Support Devices</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>1.553525709426425e-08</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -587,7 +615,9 @@
           <t>No Finding</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>2.100648757946631e-05</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -595,7 +625,9 @@
           <t>Enlarged Cardiom.</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>8.056838827842495e-09</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -603,7 +635,9 @@
           <t>Cardiomegaly</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>5.433299535704519e-07</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -611,7 +645,9 @@
           <t>Lung Lesion</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>0.007032931722704711</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -619,7 +655,9 @@
           <t>Lung Opacity</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>0.00746958453953499</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -627,7 +665,9 @@
           <t>Edema</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>7.061502350243177e-12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -635,7 +675,9 @@
           <t>Consolidation</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>2.358169682807503e-07</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -643,7 +685,9 @@
           <t>Pneumonia</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>1.002723295488438e-08</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -651,7 +695,9 @@
           <t>Atelectasis</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>0.002949310675381848</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -659,7 +705,9 @@
           <t>Pneumothorax</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>3.555597563440914e-08</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -667,7 +715,9 @@
           <t>Pleural Effusion</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>4.066554996949832e-14</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -675,7 +725,9 @@
           <t>Pleural Other</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>6.049066718272365e-10</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -683,7 +735,9 @@
           <t>Fracture</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>4.955163747957975e-13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -691,7 +745,9 @@
           <t>Support Devices</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>1.16992617465201e-16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -725,7 +781,9 @@
           <t>No Finding</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>2.388614298683008e-07</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -733,7 +791,9 @@
           <t>Enlarged Cardiom.</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>1.748864560469862e-09</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -741,7 +801,9 @@
           <t>Cardiomegaly</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>3.421516618467542e-10</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -749,7 +811,9 @@
           <t>Lung Lesion</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>0.0006911052184860778</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -757,7 +821,9 @@
           <t>Lung Opacity</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>0.0002927074424314717</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -765,7 +831,9 @@
           <t>Edema</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>7.966900069562025e-08</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -773,7 +841,9 @@
           <t>Consolidation</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>0.0002574540638237679</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -781,7 +851,9 @@
           <t>Pneumonia</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>2.10491016137352e-06</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -789,7 +861,9 @@
           <t>Atelectasis</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>9.401525086603872e-06</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -797,7 +871,9 @@
           <t>Pneumothorax</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>0.003634820685442738</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -805,7 +881,9 @@
           <t>Pleural Effusion</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>1.00709518339693e-12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -813,7 +891,9 @@
           <t>Pleural Other</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>2.303678704473348e-08</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -821,7 +901,9 @@
           <t>Fracture</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>1.328322046511736e-09</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -829,7 +911,9 @@
           <t>Support Devices</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>4.580073111445163e-14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -864,7 +948,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.058198959964459e-37</v>
+        <v>3.54161358920777e-34</v>
       </c>
     </row>
     <row r="3">
@@ -874,7 +958,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.058198959964459e-37</v>
+        <v>3.54161358920777e-34</v>
       </c>
     </row>
     <row r="4">
@@ -884,7 +968,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.058198959964459e-37</v>
+        <v>3.54161358920777e-34</v>
       </c>
     </row>
     <row r="5">
@@ -894,7 +978,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.058198959964459e-37</v>
+        <v>3.54161358920777e-34</v>
       </c>
     </row>
     <row r="6">
@@ -904,7 +988,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.058198959964459e-37</v>
+        <v>3.54161358920777e-34</v>
       </c>
     </row>
     <row r="7">
@@ -914,7 +998,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.058198959964459e-37</v>
+        <v>3.54161358920777e-34</v>
       </c>
     </row>
     <row r="8">
@@ -924,7 +1008,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.058198959964459e-37</v>
+        <v>3.54161358920777e-34</v>
       </c>
     </row>
     <row r="9">
@@ -934,7 +1018,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.058198959964459e-37</v>
+        <v>3.54161358920777e-34</v>
       </c>
     </row>
     <row r="10">
@@ -944,7 +1028,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.058198959964459e-37</v>
+        <v>3.54161358920777e-34</v>
       </c>
     </row>
     <row r="11">
@@ -954,7 +1038,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.058198959964459e-37</v>
+        <v>3.54161358920777e-34</v>
       </c>
     </row>
     <row r="12">
@@ -964,7 +1048,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.058198959964459e-37</v>
+        <v>3.54161358920777e-34</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +1058,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.058198959964459e-37</v>
+        <v>3.54161358920777e-34</v>
       </c>
     </row>
     <row r="14">
@@ -984,7 +1068,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.058198959964459e-37</v>
+        <v>3.54161358920777e-34</v>
       </c>
     </row>
     <row r="15">
@@ -994,7 +1078,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.058198959964459e-37</v>
+        <v>3.54161358920777e-34</v>
       </c>
     </row>
   </sheetData>
